--- a/data/trans_orig/P5704-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5704-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3039BA11-DC92-469A-8268-96159BFA65E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41BE9DC4-3F94-4F9D-811C-9A8C18DFB66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C842B0B-1584-44E4-BF98-C2E424A7E29C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D85ACF17-072F-4B3C-870D-25345AD5A53D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="625">
   <si>
     <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>51,11%</t>
   </si>
   <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
   </si>
   <si>
     <t>48,69%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
   </si>
   <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,1825 +107,1813 @@
     <t>26,93%</t>
   </si>
   <si>
-    <t>24,24%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
   </si>
   <si>
     <t>29,6%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2012 (Tasa respuesta: 99,63%)</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2015 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2012 (Tasa respuesta: 99,63%)</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2015 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>1,35%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48F5827-B58C-4E2D-A823-5B8A1FAA1C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221C6625-8D9B-4A42-9580-23A5421CD02C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3128,13 +3116,13 @@
         <v>163207</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>111</v>
@@ -3143,13 +3131,13 @@
         <v>116640</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -3158,13 +3146,13 @@
         <v>279847</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3167,13 @@
         <v>44065</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -3194,13 +3182,13 @@
         <v>35525</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>74</v>
@@ -3209,13 +3197,13 @@
         <v>79590</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3218,13 @@
         <v>7867</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3245,13 +3233,13 @@
         <v>11412</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -3263,10 +3251,10 @@
         <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,10 +3272,10 @@
         <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3296,13 +3284,13 @@
         <v>1178</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3311,13 +3299,13 @@
         <v>1178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3373,13 @@
         <v>1891839</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>1882</v>
@@ -3400,13 +3388,13 @@
         <v>1915986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>3726</v>
@@ -3415,13 +3403,13 @@
         <v>3807825</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3424,13 @@
         <v>904687</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>876</v>
@@ -3451,13 +3439,13 @@
         <v>897641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>1770</v>
@@ -3466,13 +3454,13 @@
         <v>1802328</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3475,13 @@
         <v>383807</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>391</v>
@@ -3502,13 +3490,13 @@
         <v>407897</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>772</v>
@@ -3517,13 +3505,13 @@
         <v>791704</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3526,13 @@
         <v>84504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>131</v>
@@ -3553,13 +3541,13 @@
         <v>138901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>215</v>
@@ -3568,13 +3556,13 @@
         <v>223405</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,10 +3580,10 @@
         <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -3604,13 +3592,13 @@
         <v>17793</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -3619,13 +3607,13 @@
         <v>27816</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3669,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41015364-F903-4DBB-9F02-87A0F15DF3AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EECC01-C22D-48C5-AE5A-486938F7250D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3717,7 +3705,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3824,13 +3812,13 @@
         <v>537258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>666</v>
@@ -3839,13 +3827,13 @@
         <v>711342</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>1172</v>
@@ -3854,13 +3842,13 @@
         <v>1248600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3863,13 @@
         <v>283285</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3890,13 +3878,13 @@
         <v>432288</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>661</v>
@@ -3905,13 +3893,13 @@
         <v>715573</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3914,13 @@
         <v>115391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>134</v>
@@ -3941,13 +3929,13 @@
         <v>146650</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>241</v>
@@ -3956,13 +3944,13 @@
         <v>262041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3965,13 @@
         <v>23496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3992,13 +3980,13 @@
         <v>31998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -4007,13 +3995,13 @@
         <v>55494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4016,13 @@
         <v>8408</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4043,13 +4031,13 @@
         <v>10377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -4058,13 +4046,13 @@
         <v>18785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4120,13 @@
         <v>1247595</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>952</v>
@@ -4147,13 +4135,13 @@
         <v>1014317</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>2143</v>
@@ -4162,13 +4150,13 @@
         <v>2261911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4171,13 @@
         <v>516493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -4198,10 +4186,10 @@
         <v>538396</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>242</v>
@@ -4213,13 +4201,13 @@
         <v>1054889</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4222,13 @@
         <v>166982</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H12" s="7">
         <v>137</v>
@@ -4249,13 +4237,13 @@
         <v>150395</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>292</v>
@@ -4264,13 +4252,13 @@
         <v>317377</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4273,13 @@
         <v>21813</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4300,13 +4288,13 @@
         <v>37590</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -4315,13 +4303,13 @@
         <v>59404</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4324,13 @@
         <v>5903</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -4351,13 +4339,13 @@
         <v>12184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4366,13 +4354,13 @@
         <v>18087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,10 +4461,10 @@
         <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4479,13 @@
         <v>137837</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -4506,13 +4494,13 @@
         <v>106706</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -4521,13 +4509,13 @@
         <v>244543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4530,13 @@
         <v>31289</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -4599,7 +4587,7 @@
         <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4608,13 +4596,13 @@
         <v>1902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4623,13 +4611,13 @@
         <v>6367</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,10 +4635,10 @@
         <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4662,10 +4650,10 @@
         <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4677,10 +4665,10 @@
         <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4736,13 @@
         <v>2090347</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>1909</v>
@@ -4763,13 +4751,13 @@
         <v>2045823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>3886</v>
@@ -4778,13 +4766,13 @@
         <v>4136170</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4787,13 @@
         <v>937615</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>993</v>
@@ -4814,13 +4802,13 @@
         <v>1077390</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M23" s="7">
         <v>1856</v>
@@ -4829,13 +4817,13 @@
         <v>2015005</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>317</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4889,13 @@
         <v>49774</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -4916,13 +4904,13 @@
         <v>71490</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>330</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -4934,10 +4922,10 @@
         <v>87</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4940,13 @@
         <v>14311</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -4967,13 +4955,13 @@
         <v>22560</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -4982,13 +4970,13 @@
         <v>36872</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>337</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,7 +5032,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5063,7 +5051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38803C8B-002E-4F91-A6D5-83DD51DC0065}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3497657D-C685-49FE-85C7-35409C11F82D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5080,7 +5068,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5187,13 +5175,13 @@
         <v>378579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>423</v>
@@ -5202,13 +5190,13 @@
         <v>471629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>805</v>
@@ -5217,13 +5205,13 @@
         <v>850209</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5226,13 @@
         <v>228654</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -5253,13 +5241,13 @@
         <v>293730</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>496</v>
@@ -5268,13 +5256,13 @@
         <v>522384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5277,13 @@
         <v>112659</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>163</v>
@@ -5304,13 +5292,13 @@
         <v>180736</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>279</v>
@@ -5319,13 +5307,13 @@
         <v>293395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5328,13 @@
         <v>28229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5355,13 +5343,13 @@
         <v>37405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>371</v>
+        <v>89</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -5370,13 +5358,13 @@
         <v>65634</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5379,13 @@
         <v>3490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>374</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5406,13 +5394,13 @@
         <v>9888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5421,13 +5409,13 @@
         <v>13378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5483,13 @@
         <v>1102472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>1012</v>
@@ -5510,13 +5498,13 @@
         <v>1047048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>2052</v>
@@ -5525,13 +5513,13 @@
         <v>2149520</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5534,13 @@
         <v>647510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H11" s="7">
         <v>613</v>
@@ -5561,13 +5549,13 @@
         <v>638732</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
         <v>1222</v>
@@ -5576,13 +5564,13 @@
         <v>1286242</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5585,13 @@
         <v>284150</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H12" s="7">
         <v>237</v>
@@ -5612,13 +5600,13 @@
         <v>254019</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M12" s="7">
         <v>499</v>
@@ -5627,13 +5615,13 @@
         <v>538169</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5636,13 @@
         <v>32302</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -5663,10 +5651,10 @@
         <v>31132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>93</v>
@@ -5678,13 +5666,13 @@
         <v>63435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,10 +5690,10 @@
         <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5714,13 +5702,13 @@
         <v>8454</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5729,13 +5717,13 @@
         <v>14903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5791,13 @@
         <v>336159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>329</v>
@@ -5818,13 +5806,13 @@
         <v>339513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>637</v>
@@ -5833,13 +5821,13 @@
         <v>675672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5842,13 @@
         <v>167503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -5869,13 +5857,13 @@
         <v>166185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -5884,13 +5872,13 @@
         <v>333688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5893,13 @@
         <v>37831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -5920,13 +5908,13 @@
         <v>37216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -5935,13 +5923,13 @@
         <v>75048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,13 +5944,13 @@
         <v>3576</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>441</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5971,13 +5959,13 @@
         <v>4286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>443</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5986,13 +5974,13 @@
         <v>7862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,10 +5998,10 @@
         <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6037,13 +6025,13 @@
         <v>1006</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6099,13 @@
         <v>1817211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>1764</v>
@@ -6126,13 +6114,13 @@
         <v>1858191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>3494</v>
@@ -6141,13 +6129,13 @@
         <v>3675402</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6150,13 @@
         <v>1043666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>1035</v>
@@ -6177,13 +6165,13 @@
         <v>1098648</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>2028</v>
@@ -6192,13 +6180,13 @@
         <v>2142314</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6201,13 @@
         <v>434640</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>463</v>
       </c>
       <c r="H24" s="7">
         <v>435</v>
@@ -6228,13 +6216,13 @@
         <v>471971</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M24" s="7">
         <v>847</v>
@@ -6243,13 +6231,13 @@
         <v>906612</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6252,13 @@
         <v>64107</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>329</v>
+        <v>470</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -6279,13 +6267,13 @@
         <v>72823</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -6294,13 +6282,13 @@
         <v>136930</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>217</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6303,13 @@
         <v>9939</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>480</v>
+        <v>56</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6330,13 +6318,13 @@
         <v>19348</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>56</v>
+        <v>478</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -6345,13 +6333,13 @@
         <v>29287</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,7 +6395,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6426,7 +6414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED6D04-0176-4D88-94C1-5781D2CF0CBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542F5DD2-880D-4D15-B4D4-508432590703}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6443,7 +6431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6550,13 +6538,13 @@
         <v>273168</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>662</v>
@@ -6565,13 +6553,13 @@
         <v>383986</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M4" s="7">
         <v>1007</v>
@@ -6580,13 +6568,13 @@
         <v>657154</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6589,13 @@
         <v>150133</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -6616,13 +6604,13 @@
         <v>260887</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>634</v>
@@ -6631,13 +6619,13 @@
         <v>411020</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6640,13 @@
         <v>74595</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H6" s="7">
         <v>193</v>
@@ -6667,10 +6655,10 @@
         <v>112089</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>505</v>
@@ -6757,10 +6745,10 @@
         <v>518</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>519</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>520</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -6769,13 +6757,13 @@
         <v>13803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>521</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -6784,13 +6772,13 @@
         <v>26660</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>525</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,13 +6846,13 @@
         <v>1236904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H10" s="7">
         <v>1588</v>
@@ -6873,13 +6861,13 @@
         <v>1218577</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M10" s="7">
         <v>2619</v>
@@ -6888,13 +6876,13 @@
         <v>2455482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>534</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +6897,13 @@
         <v>723482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H11" s="7">
         <v>1023</v>
@@ -6924,13 +6912,13 @@
         <v>816999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>535</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M11" s="7">
         <v>1762</v>
@@ -6939,13 +6927,13 @@
         <v>1540481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,13 +6948,13 @@
         <v>127231</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>432</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H12" s="7">
         <v>183</v>
@@ -6975,13 +6963,13 @@
         <v>135951</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M12" s="7">
         <v>318</v>
@@ -6990,13 +6978,13 @@
         <v>263182</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +6999,13 @@
         <v>59642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>548</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -7026,13 +7014,13 @@
         <v>62700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -7041,13 +7029,13 @@
         <v>122341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,13 +7050,13 @@
         <v>13539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>559</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -7077,13 +7065,13 @@
         <v>14003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>561</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>562</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -7092,13 +7080,13 @@
         <v>27542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>561</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7166,13 +7154,13 @@
         <v>441852</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H16" s="7">
         <v>672</v>
@@ -7181,13 +7169,13 @@
         <v>492912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M16" s="7">
         <v>1105</v>
@@ -7196,13 +7184,13 @@
         <v>934764</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,13 +7205,13 @@
         <v>183442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H17" s="7">
         <v>272</v>
@@ -7232,13 +7220,13 @@
         <v>178721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M17" s="7">
         <v>465</v>
@@ -7247,13 +7235,13 @@
         <v>362162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>582</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7256,13 @@
         <v>32408</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>576</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>434</v>
+        <v>578</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -7283,13 +7271,13 @@
         <v>29413</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -7298,13 +7286,13 @@
         <v>61821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>135</v>
+        <v>582</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7307,13 @@
         <v>8129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>587</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>588</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>589</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -7334,13 +7322,13 @@
         <v>9415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -7349,13 +7337,13 @@
         <v>17544</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7358,13 @@
         <v>6125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>591</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -7385,13 +7373,13 @@
         <v>3267</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>374</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>522</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -7400,13 +7388,13 @@
         <v>9392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>261</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7462,13 @@
         <v>1951924</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>593</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H22" s="7">
         <v>2922</v>
@@ -7489,13 +7477,13 @@
         <v>2095476</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="M22" s="7">
         <v>4731</v>
@@ -7504,13 +7492,13 @@
         <v>4047400</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7513,13 @@
         <v>1057057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>604</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H23" s="7">
         <v>1738</v>
@@ -7540,13 +7528,13 @@
         <v>1256607</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M23" s="7">
         <v>2861</v>
@@ -7555,13 +7543,13 @@
         <v>2313663</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7564,13 @@
         <v>234234</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H24" s="7">
         <v>413</v>
@@ -7591,13 +7579,13 @@
         <v>277453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M24" s="7">
         <v>681</v>
@@ -7606,13 +7594,13 @@
         <v>511687</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>515</v>
+        <v>615</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>617</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7615,13 @@
         <v>97180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -7642,13 +7630,13 @@
         <v>131990</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>620</v>
+        <v>552</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M25" s="7">
         <v>335</v>
@@ -7657,13 +7645,13 @@
         <v>229170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>620</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,13 +7666,13 @@
         <v>32521</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>626</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7693,13 +7681,13 @@
         <v>31073</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>628</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -7708,13 +7696,13 @@
         <v>63594</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,7 +7758,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5704-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5704-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41BE9DC4-3F94-4F9D-811C-9A8C18DFB66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBB10EB-5DA1-4D7F-A273-4FA67164A21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D85ACF17-072F-4B3C-870D-25345AD5A53D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED6F2FBD-BF0B-4415-8917-25E874B37314}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="628">
   <si>
     <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>51,11%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
   </si>
   <si>
     <t>48,69%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
   </si>
   <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>26,93%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>27,4%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,28 +137,28 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,1753 +167,1762 @@
     <t>4,56%</t>
   </si>
   <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2012 (Tasa respuesta: 99,63%)</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,79%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2016 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2012 (Tasa respuesta: 99,63%)</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2015 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221C6625-8D9B-4A42-9580-23A5421CD02C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD88280E-3BCD-4E49-9CF7-CD4E4526C5E2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3083,10 +3092,10 @@
         <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>617</v>
@@ -3095,13 +3104,13 @@
         <v>647927</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3125,13 @@
         <v>163207</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>111</v>
@@ -3131,13 +3140,13 @@
         <v>116640</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -3146,13 +3155,13 @@
         <v>279847</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3176,13 @@
         <v>44065</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -3182,13 +3191,13 @@
         <v>35525</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>74</v>
@@ -3197,13 +3206,13 @@
         <v>79590</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3227,13 @@
         <v>7867</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3233,13 +3242,13 @@
         <v>11412</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -3248,13 +3257,13 @@
         <v>19279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,10 +3281,10 @@
         <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3284,13 +3293,13 @@
         <v>1178</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3299,13 +3308,13 @@
         <v>1178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3382,13 @@
         <v>1891839</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>1882</v>
@@ -3388,13 +3397,13 @@
         <v>1915986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>3726</v>
@@ -3403,13 +3412,13 @@
         <v>3807825</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3433,13 @@
         <v>904687</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>876</v>
@@ -3439,13 +3448,13 @@
         <v>897641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>1770</v>
@@ -3454,13 +3463,13 @@
         <v>1802328</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3484,13 @@
         <v>383807</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>391</v>
@@ -3490,13 +3499,13 @@
         <v>407897</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>772</v>
@@ -3505,13 +3514,13 @@
         <v>791704</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3535,13 @@
         <v>84504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>131</v>
@@ -3541,13 +3550,13 @@
         <v>138901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>215</v>
@@ -3556,13 +3565,13 @@
         <v>223405</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,10 +3589,10 @@
         <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -3592,13 +3601,13 @@
         <v>17793</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -3607,13 +3616,13 @@
         <v>27816</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,7 +3678,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EECC01-C22D-48C5-AE5A-486938F7250D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCAD233-0EEA-4B2E-B923-DBF485111DDF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3705,7 +3714,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3812,13 +3821,13 @@
         <v>537258</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>666</v>
@@ -3827,13 +3836,13 @@
         <v>711342</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>1172</v>
@@ -3842,13 +3851,13 @@
         <v>1248600</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3872,13 @@
         <v>283285</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3878,13 +3887,13 @@
         <v>432288</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>661</v>
@@ -3893,13 +3902,13 @@
         <v>715573</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3923,13 @@
         <v>115391</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>134</v>
@@ -3929,13 +3938,13 @@
         <v>146650</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>241</v>
@@ -3944,13 +3953,13 @@
         <v>262041</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3974,13 @@
         <v>23496</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3980,13 +3989,13 @@
         <v>31998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3995,13 +4004,13 @@
         <v>55494</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,10 +4043,10 @@
         <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -4046,13 +4055,13 @@
         <v>18785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4129,13 @@
         <v>1247595</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>952</v>
@@ -4135,13 +4144,13 @@
         <v>1014317</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>2143</v>
@@ -4150,13 +4159,13 @@
         <v>2261911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4180,13 @@
         <v>516493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -4186,28 +4195,28 @@
         <v>538396</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>976</v>
       </c>
       <c r="N11" s="7">
-        <v>1054889</v>
+        <v>1054890</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4231,13 @@
         <v>166982</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>137</v>
@@ -4237,13 +4246,13 @@
         <v>150395</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>292</v>
@@ -4252,13 +4261,13 @@
         <v>317377</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4282,13 @@
         <v>21813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4288,13 +4297,13 @@
         <v>37590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -4303,13 +4312,13 @@
         <v>59404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4333,13 @@
         <v>5903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -4339,13 +4348,13 @@
         <v>12184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4354,13 +4363,13 @@
         <v>18087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,7 +4411,7 @@
         <v>3482</v>
       </c>
       <c r="N15" s="7">
-        <v>3711667</v>
+        <v>3711668</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -4428,13 +4437,13 @@
         <v>305494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>291</v>
@@ -4443,13 +4452,13 @@
         <v>320165</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>571</v>
@@ -4458,13 +4467,13 @@
         <v>625659</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4488,13 @@
         <v>137837</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -4494,13 +4503,13 @@
         <v>106706</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -4509,13 +4518,13 @@
         <v>244543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4539,13 @@
         <v>31289</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -4545,13 +4554,13 @@
         <v>28723</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -4560,13 +4569,13 @@
         <v>60012</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4590,13 @@
         <v>4465</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4596,13 +4605,13 @@
         <v>1902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4611,13 +4620,13 @@
         <v>6367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,10 +4644,10 @@
         <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4650,10 +4659,10 @@
         <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4665,10 +4674,10 @@
         <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,28 +4745,28 @@
         <v>2090347</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>1909</v>
       </c>
       <c r="I22" s="7">
-        <v>2045823</v>
+        <v>2045824</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>3886</v>
@@ -4766,13 +4775,13 @@
         <v>4136170</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4796,13 @@
         <v>937615</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7">
         <v>993</v>
@@ -4802,13 +4811,13 @@
         <v>1077390</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
         <v>1856</v>
@@ -4817,13 +4826,13 @@
         <v>2015005</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,28 +4847,28 @@
         <v>313663</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H24" s="7">
         <v>295</v>
       </c>
       <c r="I24" s="7">
-        <v>325767</v>
+        <v>325768</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
         <v>584</v>
@@ -4868,13 +4877,13 @@
         <v>639430</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4898,13 @@
         <v>49774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -4904,13 +4913,13 @@
         <v>71490</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -4922,10 +4931,10 @@
         <v>87</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4949,13 @@
         <v>14311</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -4955,13 +4964,13 @@
         <v>22560</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -4970,13 +4979,13 @@
         <v>36872</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,7 +5012,7 @@
         <v>3284</v>
       </c>
       <c r="I27" s="7">
-        <v>3543031</v>
+        <v>3543032</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -5032,7 +5041,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5051,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3497657D-C685-49FE-85C7-35409C11F82D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96128532-DB00-4E84-8AB9-0ACC42FCB78D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5068,7 +5077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5175,13 +5184,13 @@
         <v>378579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="H4" s="7">
         <v>423</v>
@@ -5190,13 +5199,13 @@
         <v>471629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="M4" s="7">
         <v>805</v>
@@ -5205,13 +5214,13 @@
         <v>850209</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5235,13 @@
         <v>228654</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -5241,13 +5250,13 @@
         <v>293730</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="M5" s="7">
         <v>496</v>
@@ -5256,13 +5265,13 @@
         <v>522384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5286,13 @@
         <v>112659</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H6" s="7">
         <v>163</v>
@@ -5292,13 +5301,13 @@
         <v>180736</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M6" s="7">
         <v>279</v>
@@ -5307,13 +5316,13 @@
         <v>293395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5337,13 @@
         <v>28229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5343,13 +5352,13 @@
         <v>37405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>375</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -5358,13 +5367,13 @@
         <v>65634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5388,13 @@
         <v>3490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>379</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5394,13 +5403,13 @@
         <v>9888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5409,13 +5418,13 @@
         <v>13378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>373</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5492,13 @@
         <v>1102472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>1012</v>
@@ -5498,13 +5507,13 @@
         <v>1047048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="M10" s="7">
         <v>2052</v>
@@ -5513,13 +5522,13 @@
         <v>2149520</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5543,13 @@
         <v>647510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="H11" s="7">
         <v>613</v>
@@ -5549,13 +5558,13 @@
         <v>638732</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="M11" s="7">
         <v>1222</v>
@@ -5564,13 +5573,13 @@
         <v>1286242</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5594,13 @@
         <v>284150</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="H12" s="7">
         <v>237</v>
@@ -5600,13 +5609,13 @@
         <v>254019</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="M12" s="7">
         <v>499</v>
@@ -5615,13 +5624,13 @@
         <v>538169</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5645,13 @@
         <v>32302</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>328</v>
+        <v>411</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>400</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -5651,13 +5660,13 @@
         <v>31132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>401</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -5666,13 +5675,13 @@
         <v>63435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,10 +5699,10 @@
         <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>132</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5702,13 +5711,13 @@
         <v>8454</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5717,13 +5726,13 @@
         <v>14903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>409</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5800,13 @@
         <v>336159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H16" s="7">
         <v>329</v>
@@ -5806,13 +5815,13 @@
         <v>339513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="M16" s="7">
         <v>637</v>
@@ -5821,13 +5830,13 @@
         <v>675672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5851,13 @@
         <v>167503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -5857,13 +5866,13 @@
         <v>166185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -5872,13 +5881,13 @@
         <v>333688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5902,13 @@
         <v>37831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -5908,13 +5917,13 @@
         <v>37216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -5923,13 +5932,13 @@
         <v>75048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5953,13 @@
         <v>3576</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>437</v>
+        <v>269</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>444</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5962,10 +5971,10 @@
         <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>446</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5974,13 +5983,13 @@
         <v>7862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>440</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,10 +6007,10 @@
         <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6016,7 +6025,7 @@
         <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>448</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6025,13 +6034,13 @@
         <v>1006</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6108,13 @@
         <v>1817211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>1764</v>
@@ -6114,28 +6123,28 @@
         <v>1858191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>3494</v>
       </c>
       <c r="N22" s="7">
-        <v>3675402</v>
+        <v>3675401</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6159,13 @@
         <v>1043666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="H23" s="7">
         <v>1035</v>
@@ -6165,13 +6174,13 @@
         <v>1098648</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
       <c r="M23" s="7">
         <v>2028</v>
@@ -6180,13 +6189,13 @@
         <v>2142314</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6210,13 @@
         <v>434640</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H24" s="7">
         <v>435</v>
@@ -6216,13 +6225,13 @@
         <v>471971</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="M24" s="7">
         <v>847</v>
@@ -6231,13 +6240,13 @@
         <v>906612</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,13 +6261,13 @@
         <v>64107</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -6267,13 +6276,13 @@
         <v>72823</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>472</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>258</v>
+        <v>479</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>473</v>
+        <v>89</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -6282,13 +6291,13 @@
         <v>136930</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6312,13 @@
         <v>9939</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>266</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>477</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>56</v>
+        <v>483</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6318,13 +6327,13 @@
         <v>19348</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>479</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -6333,13 +6342,13 @@
         <v>29287</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,7 +6390,7 @@
         <v>6524</v>
       </c>
       <c r="N27" s="7">
-        <v>6890545</v>
+        <v>6890544</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -6395,7 +6404,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6414,7 +6423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542F5DD2-880D-4D15-B4D4-508432590703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44BC440-AD62-49DF-BC9F-DDF0A0FE5A47}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6431,7 +6440,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6538,13 +6547,13 @@
         <v>273168</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7">
         <v>662</v>
@@ -6553,13 +6562,13 @@
         <v>383986</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M4" s="7">
         <v>1007</v>
@@ -6568,13 +6577,13 @@
         <v>657154</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6598,13 @@
         <v>150133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -6604,13 +6613,13 @@
         <v>260887</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>496</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>634</v>
@@ -6619,13 +6628,13 @@
         <v>411020</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6649,13 @@
         <v>74595</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H6" s="7">
         <v>193</v>
@@ -6655,13 +6664,13 @@
         <v>112089</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M6" s="7">
         <v>290</v>
@@ -6670,13 +6679,13 @@
         <v>186683</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>508</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6700,13 @@
         <v>29409</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -6706,13 +6715,13 @@
         <v>59875</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -6721,13 +6730,13 @@
         <v>89285</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6751,13 @@
         <v>12857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>520</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -6757,13 +6766,13 @@
         <v>13803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>519</v>
+        <v>413</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>520</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -6772,13 +6781,13 @@
         <v>26660</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,13 +6855,13 @@
         <v>1236904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H10" s="7">
         <v>1588</v>
@@ -6861,13 +6870,13 @@
         <v>1218577</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M10" s="7">
         <v>2619</v>
@@ -6876,13 +6885,13 @@
         <v>2455482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>530</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6906,13 @@
         <v>723482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H11" s="7">
         <v>1023</v>
@@ -6912,13 +6921,13 @@
         <v>816999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M11" s="7">
         <v>1762</v>
@@ -6927,13 +6936,13 @@
         <v>1540481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>454</v>
+        <v>539</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6957,13 @@
         <v>127231</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>539</v>
+        <v>123</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>432</v>
+        <v>177</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H12" s="7">
         <v>183</v>
@@ -6963,13 +6972,13 @@
         <v>135951</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M12" s="7">
         <v>318</v>
@@ -6978,13 +6987,13 @@
         <v>263182</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +7008,13 @@
         <v>59642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -7014,13 +7023,13 @@
         <v>62700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -7029,13 +7038,13 @@
         <v>122341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7059,13 @@
         <v>13539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>557</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -7065,13 +7074,13 @@
         <v>14003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>559</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>557</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -7080,13 +7089,13 @@
         <v>27542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,13 +7163,13 @@
         <v>441852</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H16" s="7">
         <v>672</v>
@@ -7169,13 +7178,13 @@
         <v>492912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M16" s="7">
         <v>1105</v>
@@ -7184,13 +7193,13 @@
         <v>934764</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7214,13 @@
         <v>183442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H17" s="7">
         <v>272</v>
@@ -7220,13 +7229,13 @@
         <v>178721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M17" s="7">
         <v>465</v>
@@ -7235,13 +7244,13 @@
         <v>362162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7265,13 @@
         <v>32408</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -7271,13 +7280,13 @@
         <v>29413</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -7286,13 +7295,13 @@
         <v>61821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,10 +7316,10 @@
         <v>8129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>559</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>93</v>
@@ -7322,13 +7331,13 @@
         <v>9415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -7337,13 +7346,13 @@
         <v>17544</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>589</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7367,13 @@
         <v>6125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -7373,13 +7382,13 @@
         <v>3267</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>405</v>
+        <v>594</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>595</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -7388,13 +7397,13 @@
         <v>9392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>440</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7471,13 @@
         <v>1951924</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>2922</v>
@@ -7477,13 +7486,13 @@
         <v>2095476</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="M22" s="7">
         <v>4731</v>
@@ -7492,13 +7501,13 @@
         <v>4047400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7522,13 @@
         <v>1057057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>453</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H23" s="7">
         <v>1738</v>
@@ -7528,13 +7537,13 @@
         <v>1256607</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="M23" s="7">
         <v>2861</v>
@@ -7543,13 +7552,13 @@
         <v>2313663</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7573,13 @@
         <v>234234</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H24" s="7">
         <v>413</v>
@@ -7579,13 +7588,13 @@
         <v>277453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>611</v>
+        <v>250</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="M24" s="7">
         <v>681</v>
@@ -7594,13 +7603,13 @@
         <v>511687</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7624,13 @@
         <v>97180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>619</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>617</v>
+        <v>42</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -7630,13 +7639,13 @@
         <v>131990</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M25" s="7">
         <v>335</v>
@@ -7645,13 +7654,13 @@
         <v>229170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7675,13 @@
         <v>32521</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>624</v>
+        <v>228</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7681,13 +7690,13 @@
         <v>31073</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>409</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>399</v>
+        <v>627</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -7696,13 +7705,13 @@
         <v>63594</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>519</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7758,7 +7767,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5704-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5704-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBB10EB-5DA1-4D7F-A273-4FA67164A21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B222D234-041E-45D0-9D19-42514A63D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED6F2FBD-BF0B-4415-8917-25E874B37314}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCFADBCA-E213-46FB-A9AC-5A297E392369}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="629">
   <si>
     <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>51,11%</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>48,69%</t>
   </si>
   <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
   </si>
   <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>26,93%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>27,4%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,7 +137,7 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>14,31%</t>
+    <t>14,12%</t>
   </si>
   <si>
     <t>18,88%</t>
@@ -146,19 +146,19 @@
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,28 +167,28 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
   </si>
   <si>
     <t>Mucho menos de lo que deseo</t>
@@ -197,1732 +197,1735 @@
     <t>0,88%</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2012 (Tasa respuesta: 99,63%)</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2016 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2012 (Tasa respuesta: 99,63%)</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2016 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>0,57%</t>
   </si>
 </sst>
 </file>
@@ -2334,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD88280E-3BCD-4E49-9CF7-CD4E4526C5E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7361A43F-27C5-4CC5-AF0C-FD04A0B24C02}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3092,10 +3095,10 @@
         <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>617</v>
@@ -3104,13 +3107,13 @@
         <v>647927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,7 +3128,7 @@
         <v>163207</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>114</v>
@@ -3176,13 +3179,13 @@
         <v>44065</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -3191,13 +3194,13 @@
         <v>35525</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>74</v>
@@ -3206,13 +3209,13 @@
         <v>79590</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3230,13 @@
         <v>7867</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3242,13 +3245,13 @@
         <v>11412</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -3257,13 +3260,13 @@
         <v>19279</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,10 +3284,10 @@
         <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3293,13 +3296,13 @@
         <v>1178</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3308,13 +3311,13 @@
         <v>1178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3385,13 @@
         <v>1891839</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>1882</v>
@@ -3397,13 +3400,13 @@
         <v>1915986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>3726</v>
@@ -3412,13 +3415,13 @@
         <v>3807825</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3436,13 @@
         <v>904687</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>876</v>
@@ -3448,13 +3451,13 @@
         <v>897641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>1770</v>
@@ -3463,13 +3466,13 @@
         <v>1802328</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3487,13 @@
         <v>383807</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>391</v>
@@ -3499,13 +3502,13 @@
         <v>407897</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>772</v>
@@ -3514,13 +3517,13 @@
         <v>791704</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3538,13 @@
         <v>84504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>131</v>
@@ -3550,13 +3553,13 @@
         <v>138901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>215</v>
@@ -3565,13 +3568,13 @@
         <v>223405</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,10 +3592,10 @@
         <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -3601,13 +3604,13 @@
         <v>17793</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -3616,13 +3619,13 @@
         <v>27816</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,7 +3681,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCAD233-0EEA-4B2E-B923-DBF485111DDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2680D3F7-15E3-4222-BB49-E61CFF3CF0F5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3714,7 +3717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3821,13 +3824,13 @@
         <v>537258</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>666</v>
@@ -3836,13 +3839,13 @@
         <v>711342</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>1172</v>
@@ -3851,13 +3854,13 @@
         <v>1248600</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3875,13 @@
         <v>283285</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3887,13 +3890,13 @@
         <v>432288</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>661</v>
@@ -3902,13 +3905,13 @@
         <v>715573</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3926,13 @@
         <v>115391</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>134</v>
@@ -3938,13 +3941,13 @@
         <v>146650</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M6" s="7">
         <v>241</v>
@@ -3953,13 +3956,13 @@
         <v>262041</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3977,13 @@
         <v>23496</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3989,13 +3992,13 @@
         <v>31998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -4004,13 +4007,13 @@
         <v>55494</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4028,13 @@
         <v>8408</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4040,13 +4043,13 @@
         <v>10377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -4055,13 +4058,13 @@
         <v>18785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4132,13 @@
         <v>1247595</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>952</v>
@@ -4144,13 +4147,13 @@
         <v>1014317</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>2143</v>
@@ -4159,13 +4162,13 @@
         <v>2261911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4183,13 @@
         <v>516493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -4195,28 +4198,28 @@
         <v>538396</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>976</v>
       </c>
       <c r="N11" s="7">
-        <v>1054890</v>
+        <v>1054889</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4234,13 @@
         <v>166982</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H12" s="7">
         <v>137</v>
@@ -4246,13 +4249,13 @@
         <v>150395</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>292</v>
@@ -4261,13 +4264,13 @@
         <v>317377</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4285,13 @@
         <v>21813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4297,13 +4300,13 @@
         <v>37590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -4312,13 +4315,13 @@
         <v>59404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4336,13 @@
         <v>5903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -4348,13 +4351,13 @@
         <v>12184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4363,13 +4366,13 @@
         <v>18087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,7 +4414,7 @@
         <v>3482</v>
       </c>
       <c r="N15" s="7">
-        <v>3711668</v>
+        <v>3711667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -4437,13 +4440,13 @@
         <v>305494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>291</v>
@@ -4452,13 +4455,13 @@
         <v>320165</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>571</v>
@@ -4467,13 +4470,13 @@
         <v>625659</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4491,13 @@
         <v>137837</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -4503,13 +4506,13 @@
         <v>106706</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -4518,13 +4521,13 @@
         <v>244543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4542,13 @@
         <v>31289</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -4554,13 +4557,13 @@
         <v>28723</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -4569,13 +4572,13 @@
         <v>60012</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4593,13 @@
         <v>4465</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4605,13 +4608,13 @@
         <v>1902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4620,13 +4623,13 @@
         <v>6367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,10 +4647,10 @@
         <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4659,10 +4662,10 @@
         <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4674,10 +4677,10 @@
         <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,28 +4748,28 @@
         <v>2090347</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>1909</v>
       </c>
       <c r="I22" s="7">
-        <v>2045824</v>
+        <v>2045823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M22" s="7">
         <v>3886</v>
@@ -4775,13 +4778,13 @@
         <v>4136170</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>60</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4799,13 @@
         <v>937615</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="H23" s="7">
         <v>993</v>
@@ -4811,13 +4814,13 @@
         <v>1077390</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M23" s="7">
         <v>1856</v>
@@ -4826,13 +4829,13 @@
         <v>2015005</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,28 +4850,28 @@
         <v>313663</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H24" s="7">
         <v>295</v>
       </c>
       <c r="I24" s="7">
-        <v>325768</v>
+        <v>325767</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M24" s="7">
         <v>584</v>
@@ -4877,13 +4880,13 @@
         <v>639430</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4901,13 @@
         <v>49774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -4913,13 +4916,13 @@
         <v>71490</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -4931,10 +4934,10 @@
         <v>87</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4952,13 @@
         <v>14311</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>337</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -4964,13 +4967,13 @@
         <v>22560</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -4979,13 +4982,13 @@
         <v>36872</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,7 +5015,7 @@
         <v>3284</v>
       </c>
       <c r="I27" s="7">
-        <v>3543032</v>
+        <v>3543031</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -5041,7 +5044,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5060,7 +5063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96128532-DB00-4E84-8AB9-0ACC42FCB78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D44C76C-8431-493B-8F46-D8B289C63882}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5077,7 +5080,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5184,13 +5187,13 @@
         <v>378579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H4" s="7">
         <v>423</v>
@@ -5199,13 +5202,13 @@
         <v>471629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M4" s="7">
         <v>805</v>
@@ -5214,13 +5217,13 @@
         <v>850209</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5238,13 @@
         <v>228654</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -5250,13 +5253,13 @@
         <v>293730</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>496</v>
@@ -5265,13 +5268,13 @@
         <v>522384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5289,13 @@
         <v>112659</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>163</v>
@@ -5301,13 +5304,13 @@
         <v>180736</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M6" s="7">
         <v>279</v>
@@ -5316,13 +5319,13 @@
         <v>293395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5340,13 @@
         <v>28229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5352,13 +5355,13 @@
         <v>37405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -5367,13 +5370,13 @@
         <v>65634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5391,13 @@
         <v>3490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>375</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5403,13 +5406,13 @@
         <v>9888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>379</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5418,13 +5421,13 @@
         <v>13378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5495,13 @@
         <v>1102472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>1012</v>
@@ -5507,13 +5510,13 @@
         <v>1047048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>2052</v>
@@ -5522,13 +5525,13 @@
         <v>2149520</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5546,13 @@
         <v>647510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H11" s="7">
         <v>613</v>
@@ -5558,13 +5561,13 @@
         <v>638732</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M11" s="7">
         <v>1222</v>
@@ -5573,13 +5576,13 @@
         <v>1286242</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5597,13 @@
         <v>284150</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H12" s="7">
         <v>237</v>
@@ -5609,13 +5612,13 @@
         <v>254019</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M12" s="7">
         <v>499</v>
@@ -5624,13 +5627,13 @@
         <v>538169</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5648,13 @@
         <v>32302</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>412</v>
+        <v>328</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>406</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -5660,13 +5663,13 @@
         <v>31132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>407</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>414</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -5675,13 +5678,13 @@
         <v>63435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>407</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,10 +5702,10 @@
         <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5711,13 +5714,13 @@
         <v>8454</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5726,13 +5729,13 @@
         <v>14903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5803,13 @@
         <v>336159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>329</v>
@@ -5815,13 +5818,13 @@
         <v>339513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>637</v>
@@ -5830,13 +5833,13 @@
         <v>675672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5854,13 @@
         <v>167503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -5866,13 +5869,13 @@
         <v>166185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>310</v>
@@ -5881,13 +5884,13 @@
         <v>333688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5905,13 @@
         <v>37831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -5917,13 +5920,13 @@
         <v>37216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -5932,13 +5935,13 @@
         <v>75048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>249</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5956,13 @@
         <v>3576</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>269</v>
+        <v>440</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>444</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5968,13 +5971,13 @@
         <v>4286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5983,13 +5986,13 @@
         <v>7862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>444</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>445</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>447</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,10 +6010,10 @@
         <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6025,7 +6028,7 @@
         <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>448</v>
+        <v>294</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6034,13 +6037,13 @@
         <v>1006</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>183</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6111,13 @@
         <v>1817211</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>1764</v>
@@ -6123,28 +6126,28 @@
         <v>1858191</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>3494</v>
       </c>
       <c r="N22" s="7">
-        <v>3675401</v>
+        <v>3675402</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6162,13 @@
         <v>1043666</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H23" s="7">
         <v>1035</v>
@@ -6174,13 +6177,13 @@
         <v>1098648</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M23" s="7">
         <v>2028</v>
@@ -6189,13 +6192,13 @@
         <v>2142314</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6213,13 @@
         <v>434640</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>468</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>469</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>435</v>
@@ -6225,13 +6228,13 @@
         <v>471971</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M24" s="7">
         <v>847</v>
@@ -6240,13 +6243,13 @@
         <v>906612</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6264,13 @@
         <v>64107</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>476</v>
+        <v>329</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>478</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -6276,13 +6279,13 @@
         <v>72823</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>475</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>479</v>
+        <v>260</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>476</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -6291,13 +6294,13 @@
         <v>136930</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>481</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,10 +6318,10 @@
         <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>479</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6327,13 +6330,13 @@
         <v>19348</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>483</v>
+        <v>56</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>481</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -6342,13 +6345,13 @@
         <v>29287</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,7 +6393,7 @@
         <v>6524</v>
       </c>
       <c r="N27" s="7">
-        <v>6890544</v>
+        <v>6890545</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -6404,7 +6407,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6423,7 +6426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44BC440-AD62-49DF-BC9F-DDF0A0FE5A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE81050-C9A3-4825-BAE6-04198D4EAE6D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6440,7 +6443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6547,13 +6550,13 @@
         <v>273168</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>662</v>
@@ -6562,13 +6565,13 @@
         <v>383986</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
         <v>1007</v>
@@ -6577,13 +6580,13 @@
         <v>657154</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6601,13 @@
         <v>150133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -6613,13 +6616,13 @@
         <v>260887</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>634</v>
@@ -6628,13 +6631,13 @@
         <v>411020</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6652,13 @@
         <v>74595</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H6" s="7">
         <v>193</v>
@@ -6664,13 +6667,13 @@
         <v>112089</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M6" s="7">
         <v>290</v>
@@ -6679,13 +6682,13 @@
         <v>186683</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6703,13 @@
         <v>29409</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -6715,13 +6718,13 @@
         <v>59875</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -6730,13 +6733,13 @@
         <v>89285</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6754,13 @@
         <v>12857</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -6766,13 +6769,13 @@
         <v>13803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>94</v>
+        <v>521</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>413</v>
+        <v>522</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>523</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -6781,13 +6784,13 @@
         <v>26660</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>131</v>
+        <v>525</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6858,13 @@
         <v>1236904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H10" s="7">
         <v>1588</v>
@@ -6870,13 +6873,13 @@
         <v>1218577</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M10" s="7">
         <v>2619</v>
@@ -6885,13 +6888,13 @@
         <v>2455482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>533</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6909,13 @@
         <v>723482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H11" s="7">
         <v>1023</v>
@@ -6921,13 +6924,13 @@
         <v>816999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>536</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M11" s="7">
         <v>1762</v>
@@ -6936,13 +6939,13 @@
         <v>1540481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6960,13 @@
         <v>127231</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>123</v>
+        <v>543</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H12" s="7">
         <v>183</v>
@@ -6972,13 +6975,13 @@
         <v>135951</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M12" s="7">
         <v>318</v>
@@ -6987,13 +6990,13 @@
         <v>263182</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7011,13 @@
         <v>59642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>549</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -7023,13 +7026,13 @@
         <v>62700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -7038,13 +7041,13 @@
         <v>122341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7062,13 @@
         <v>13539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>557</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>559</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -7074,13 +7077,13 @@
         <v>14003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>341</v>
+        <v>562</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>563</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -7089,13 +7092,13 @@
         <v>27542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,13 +7166,13 @@
         <v>441852</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H16" s="7">
         <v>672</v>
@@ -7178,13 +7181,13 @@
         <v>492912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="M16" s="7">
         <v>1105</v>
@@ -7193,13 +7196,13 @@
         <v>934764</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7217,13 @@
         <v>183442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="H17" s="7">
         <v>272</v>
@@ -7229,13 +7232,13 @@
         <v>178721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="M17" s="7">
         <v>465</v>
@@ -7244,13 +7247,13 @@
         <v>362162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7268,13 @@
         <v>32408</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>579</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>581</v>
+        <v>434</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -7280,13 +7283,13 @@
         <v>29413</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>584</v>
+        <v>513</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -7295,13 +7298,13 @@
         <v>61821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>585</v>
+        <v>135</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>586</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>587</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7319,13 @@
         <v>8129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>587</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>589</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -7331,13 +7334,13 @@
         <v>9415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -7346,13 +7349,13 @@
         <v>17544</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7370,13 @@
         <v>6125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>593</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -7382,13 +7385,13 @@
         <v>3267</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>594</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>595</v>
+        <v>522</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -7397,13 +7400,13 @@
         <v>9392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>596</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7474,13 @@
         <v>1951924</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>597</v>
+        <v>304</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H22" s="7">
         <v>2922</v>
@@ -7486,13 +7489,13 @@
         <v>2095476</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="M22" s="7">
         <v>4731</v>
@@ -7501,13 +7504,13 @@
         <v>4047400</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7525,13 @@
         <v>1057057</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="H23" s="7">
         <v>1738</v>
@@ -7537,13 +7540,13 @@
         <v>1256607</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="M23" s="7">
         <v>2861</v>
@@ -7552,13 +7555,13 @@
         <v>2313663</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7576,13 @@
         <v>234234</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="H24" s="7">
         <v>413</v>
@@ -7588,13 +7591,13 @@
         <v>277453</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>250</v>
+        <v>511</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="M24" s="7">
         <v>681</v>
@@ -7603,13 +7606,13 @@
         <v>511687</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7627,13 @@
         <v>97180</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -7639,7 +7642,7 @@
         <v>131990</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>621</v>
@@ -7654,13 +7657,13 @@
         <v>229170</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7678,13 @@
         <v>32521</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>228</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7690,13 +7693,13 @@
         <v>31073</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>628</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>627</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -7705,13 +7708,13 @@
         <v>63594</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>413</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,7 +7770,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5704-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5704-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B222D234-041E-45D0-9D19-42514A63D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69B90FB6-E7ED-4817-9B61-ABB3B5D0EDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCFADBCA-E213-46FB-A9AC-5A297E392369}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1503D7A5-FA88-4D89-8B27-C4DA850B2CF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="621">
   <si>
     <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -1490,442 +1490,418 @@
     <t>Población según la frecuencia de contar con personas que se preocupan de lo que me sucede en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
   <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>1,01%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7361A43F-27C5-4CC5-AF0C-FD04A0B24C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038FB243-E4B6-470D-A089-E522EF6009FB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2539,7 +2515,7 @@
         <v>634</v>
       </c>
       <c r="N5" s="7">
-        <v>643007</v>
+        <v>643006</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2743,7 +2719,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -3700,7 +3676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2680D3F7-15E3-4222-BB49-E61CFF3CF0F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5033260-B455-4210-8777-9CE0D6B5B535}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5063,7 +5039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D44C76C-8431-493B-8F46-D8B289C63882}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3681EED5-09F6-4A6E-8366-C1E5CCC8585F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6426,7 +6402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE81050-C9A3-4825-BAE6-04198D4EAE6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C060BDC0-355A-4C00-A0D0-2E328C13CE1B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6547,7 +6523,7 @@
         <v>345</v>
       </c>
       <c r="D4" s="7">
-        <v>273168</v>
+        <v>265565</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>483</v>
@@ -6562,7 +6538,7 @@
         <v>662</v>
       </c>
       <c r="I4" s="7">
-        <v>383986</v>
+        <v>355766</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>486</v>
@@ -6577,7 +6553,7 @@
         <v>1007</v>
       </c>
       <c r="N4" s="7">
-        <v>657154</v>
+        <v>621331</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>489</v>
@@ -6598,46 +6574,46 @@
         <v>191</v>
       </c>
       <c r="D5" s="7">
-        <v>150133</v>
+        <v>141369</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
       </c>
       <c r="I5" s="7">
-        <v>260887</v>
+        <v>231559</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>634</v>
       </c>
       <c r="N5" s="7">
-        <v>411020</v>
+        <v>372928</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>499</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,46 +6625,46 @@
         <v>97</v>
       </c>
       <c r="D6" s="7">
-        <v>74595</v>
+        <v>68828</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H6" s="7">
         <v>193</v>
       </c>
       <c r="I6" s="7">
-        <v>112089</v>
+        <v>99086</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M6" s="7">
         <v>290</v>
       </c>
       <c r="N6" s="7">
-        <v>186683</v>
+        <v>167914</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>506</v>
+        <v>402</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,46 +6676,46 @@
         <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>29409</v>
+        <v>26454</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>510</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
       </c>
       <c r="I7" s="7">
-        <v>59875</v>
+        <v>52251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
       </c>
       <c r="N7" s="7">
-        <v>89285</v>
+        <v>78704</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>516</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,46 +6727,46 @@
         <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>12857</v>
+        <v>11357</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>13803</v>
+        <v>12126</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
       </c>
       <c r="N8" s="7">
-        <v>26660</v>
+        <v>23483</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>526</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,7 +6778,7 @@
         <v>689</v>
       </c>
       <c r="D9" s="7">
-        <v>540162</v>
+        <v>513572</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -6817,7 +6793,7 @@
         <v>1419</v>
       </c>
       <c r="I9" s="7">
-        <v>830640</v>
+        <v>750788</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -6832,7 +6808,7 @@
         <v>2108</v>
       </c>
       <c r="N9" s="7">
-        <v>1370802</v>
+        <v>1264360</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -6855,46 +6831,46 @@
         <v>1031</v>
       </c>
       <c r="D10" s="7">
-        <v>1236904</v>
+        <v>1429768</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H10" s="7">
         <v>1588</v>
       </c>
       <c r="I10" s="7">
-        <v>1218577</v>
+        <v>1207828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="M10" s="7">
         <v>2619</v>
       </c>
       <c r="N10" s="7">
-        <v>2455482</v>
+        <v>2637597</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>532</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>534</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,46 +6882,46 @@
         <v>739</v>
       </c>
       <c r="D11" s="7">
-        <v>723482</v>
+        <v>675797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="H11" s="7">
         <v>1023</v>
       </c>
       <c r="I11" s="7">
-        <v>816999</v>
+        <v>837652</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>394</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>539</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1762</v>
       </c>
       <c r="N11" s="7">
-        <v>1540481</v>
+        <v>1513449</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,46 +6933,46 @@
         <v>135</v>
       </c>
       <c r="D12" s="7">
-        <v>127231</v>
+        <v>117970</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>432</v>
+        <v>531</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="H12" s="7">
         <v>183</v>
       </c>
       <c r="I12" s="7">
-        <v>135951</v>
+        <v>123514</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>545</v>
+        <v>438</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="M12" s="7">
         <v>318</v>
       </c>
       <c r="N12" s="7">
-        <v>263182</v>
+        <v>241484</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,46 +6984,46 @@
         <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>59642</v>
+        <v>52830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
       </c>
       <c r="I13" s="7">
-        <v>62700</v>
+        <v>55327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>554</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
       </c>
       <c r="N13" s="7">
-        <v>122341</v>
+        <v>108157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,46 +7035,46 @@
         <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>13539</v>
+        <v>12518</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>559</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>14003</v>
+        <v>12293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>561</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>562</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>563</v>
+        <v>481</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
       </c>
       <c r="N14" s="7">
-        <v>27542</v>
+        <v>24810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>561</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,7 +7086,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2160798</v>
+        <v>2288883</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -7125,7 +7101,7 @@
         <v>2919</v>
       </c>
       <c r="I15" s="7">
-        <v>2248230</v>
+        <v>2236614</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -7140,7 +7116,7 @@
         <v>4909</v>
       </c>
       <c r="N15" s="7">
-        <v>4409029</v>
+        <v>4525497</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -7163,46 +7139,46 @@
         <v>433</v>
       </c>
       <c r="D16" s="7">
-        <v>441852</v>
+        <v>426944</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>566</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>672</v>
       </c>
       <c r="I16" s="7">
-        <v>492912</v>
+        <v>459540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>1105</v>
       </c>
       <c r="N16" s="7">
-        <v>934764</v>
+        <v>886485</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,46 +7190,46 @@
         <v>193</v>
       </c>
       <c r="D17" s="7">
-        <v>183442</v>
+        <v>175501</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="H17" s="7">
         <v>272</v>
       </c>
       <c r="I17" s="7">
-        <v>178721</v>
+        <v>162867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="M17" s="7">
         <v>465</v>
       </c>
       <c r="N17" s="7">
-        <v>362162</v>
+        <v>338368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>580</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,46 +7241,46 @@
         <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>32408</v>
+        <v>30261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>563</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>434</v>
+        <v>565</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
       </c>
       <c r="I18" s="7">
-        <v>29413</v>
+        <v>26303</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
       </c>
       <c r="N18" s="7">
-        <v>61821</v>
+        <v>56565</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>135</v>
+        <v>569</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,46 +7292,46 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>8129</v>
+        <v>7452</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>9415</v>
+        <v>8622</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
       </c>
       <c r="N19" s="7">
-        <v>17544</v>
+        <v>16074</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>592</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,46 +7343,46 @@
         <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>6125</v>
+        <v>5554</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>595</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>579</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>3267</v>
+        <v>2971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>374</v>
+        <v>581</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>9392</v>
+        <v>8525</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>261</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,7 +7394,7 @@
         <v>680</v>
       </c>
       <c r="D21" s="7">
-        <v>671956</v>
+        <v>645713</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -7433,7 +7409,7 @@
         <v>1003</v>
       </c>
       <c r="I21" s="7">
-        <v>713727</v>
+        <v>660304</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -7448,7 +7424,7 @@
         <v>1683</v>
       </c>
       <c r="N21" s="7">
-        <v>1385683</v>
+        <v>1306017</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -7471,46 +7447,46 @@
         <v>1809</v>
       </c>
       <c r="D22" s="7">
-        <v>1951924</v>
+        <v>2122278</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>583</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>584</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="H22" s="7">
         <v>2922</v>
       </c>
       <c r="I22" s="7">
-        <v>2095476</v>
+        <v>2023135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="M22" s="7">
         <v>4731</v>
       </c>
       <c r="N22" s="7">
-        <v>4047400</v>
+        <v>4145413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,46 +7498,46 @@
         <v>1123</v>
       </c>
       <c r="D23" s="7">
-        <v>1057057</v>
+        <v>992668</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="H23" s="7">
         <v>1738</v>
       </c>
       <c r="I23" s="7">
-        <v>1256607</v>
+        <v>1232077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="M23" s="7">
         <v>2861</v>
       </c>
       <c r="N23" s="7">
-        <v>2313663</v>
+        <v>2224745</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,46 +7549,46 @@
         <v>268</v>
       </c>
       <c r="D24" s="7">
-        <v>234234</v>
+        <v>217059</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>431</v>
+        <v>601</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="H24" s="7">
         <v>413</v>
       </c>
       <c r="I24" s="7">
-        <v>277453</v>
+        <v>248904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>511</v>
+        <v>604</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="M24" s="7">
         <v>681</v>
       </c>
       <c r="N24" s="7">
-        <v>511687</v>
+        <v>465962</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>515</v>
+        <v>608</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,46 +7600,46 @@
         <v>121</v>
       </c>
       <c r="D25" s="7">
-        <v>97180</v>
+        <v>86736</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>618</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>619</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
       </c>
       <c r="I25" s="7">
-        <v>131990</v>
+        <v>116200</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>621</v>
+        <v>540</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="M25" s="7">
         <v>335</v>
       </c>
       <c r="N25" s="7">
-        <v>229170</v>
+        <v>202935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>612</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,46 +7651,46 @@
         <v>38</v>
       </c>
       <c r="D26" s="7">
-        <v>32521</v>
+        <v>29428</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>627</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
       </c>
       <c r="I26" s="7">
-        <v>31073</v>
+        <v>27390</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>226</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>628</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>618</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
       </c>
       <c r="N26" s="7">
-        <v>63594</v>
+        <v>56818</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>564</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>619</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,7 +7702,7 @@
         <v>3359</v>
       </c>
       <c r="D27" s="7">
-        <v>3372916</v>
+        <v>3448168</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -7741,7 +7717,7 @@
         <v>5341</v>
       </c>
       <c r="I27" s="7">
-        <v>3792598</v>
+        <v>3647706</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -7756,7 +7732,7 @@
         <v>8700</v>
       </c>
       <c r="N27" s="7">
-        <v>7165514</v>
+        <v>7095874</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
